--- a/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Sidewalk_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
+++ b/Accelerometer and Audio data/IMU and ADXL data/Excel data and plotting program/Sidewalk_adxl-3200Hz-16g_imu-562Hz-16g.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GEM Lab\GEMLabHCIResearch\Accelerometer and Audio data\IMU and ADXL data\Excel data and plotting program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E558AE-3A38-44E0-BD16-E9E7B5DF486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BF7417-62FC-486F-8D61-A38AF18C50B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>IMU-Z</t>
   </si>
   <si>
-    <t xml:space="preserve"> ADXL-X</t>
-  </si>
-  <si>
     <t>ADXL-Y</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>Samples</t>
+  </si>
+  <si>
+    <t>ADXL-X</t>
   </si>
 </sst>
 </file>
@@ -904,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F9C0A2-4382-4843-8E16-4E9E2B8F3D4D}">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,7 +915,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -927,19 +927,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -6532,14 +6532,14 @@
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6551,19 +6551,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -12590,7 +12590,7 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L56" sqref="L56"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12603,7 +12603,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -12615,19 +12615,19 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
